--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1718207.191024872</v>
+        <v>-1725217.920140866</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>191.3712322988094</v>
+        <v>297.4523089571</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968111</v>
+        <v>50.6435372072289</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>57.87860001854902</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>55.66823126610256</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>309.130297110401</v>
+        <v>388.0749416639478</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968111</v>
+        <v>50.6435372072289</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>99.38378452906485</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>47.1445242432434</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.1445242432434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.4586643954128</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>74.5444988385494</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>91.0419488577285</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>50.45313071327224</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>136.1999009772077</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.25671390701552</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>38.81772996721332</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442477</v>
+        <v>69.5810154538827</v>
       </c>
       <c r="G16" t="n">
-        <v>95.4932009668169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456087</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.75514875447538</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277421</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596575008</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973565021</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167853</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196094</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380066</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667977</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644704</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883918</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541122</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658315</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701039068</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656639</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450.9131740792982</v>
+        <v>525.8997999985941</v>
       </c>
       <c r="C2" t="n">
-        <v>450.9131740792982</v>
+        <v>525.8997999985941</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47204529596593</v>
+        <v>525.8997999985941</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596593</v>
+        <v>525.8997999985941</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634775</v>
+        <v>513.0457655689759</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424381</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697129</v>
+        <v>1102.089684652127</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544456</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523738</v>
+        <v>1813.668821661865</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523738</v>
+        <v>1557.916092096463</v>
       </c>
       <c r="V2" t="n">
-        <v>1404.669089227256</v>
+        <v>1215.809282799982</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.670054195544</v>
+        <v>1215.809282799982</v>
       </c>
       <c r="X2" t="n">
-        <v>644.2174491286006</v>
+        <v>826.3566777330385</v>
       </c>
       <c r="Y2" t="n">
-        <v>450.9131740792982</v>
+        <v>525.8997999985941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>555.1059253660277</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>921.5731989359489</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021351</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>242.0866348642473</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>884.4870369559222</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>884.4870369559222</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>884.4870369559222</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1265981188567</v>
+        <v>884.4870369559222</v>
       </c>
       <c r="W4" t="n">
-        <v>685.8960614864299</v>
+        <v>884.4870369559222</v>
       </c>
       <c r="X4" t="n">
-        <v>451.8157392694129</v>
+        <v>650.4067147389053</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.7036780860562</v>
+        <v>427.2946535555486</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.916866303798</v>
+        <v>1244.679787821407</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.916866303798</v>
+        <v>851.5042863243373</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204661</v>
+        <v>466.063157541005</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>63.47963265754947</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>50.62559822793129</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1562.028895694246</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>2002.068496586574</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.16969166784</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.16969166784</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="X5" t="n">
-        <v>1628.16969166784</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1315.916866303798</v>
+        <v>1645.174533532804</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136675</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146768</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737749</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>826.88572885977</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="V7" t="n">
-        <v>560.9063836805942</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="W7" t="n">
-        <v>277.5759816117719</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>454.6953937223412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.7095233437991</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="C8" t="n">
         <v>531.7095233437991</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4847,7 +4847,7 @@
         <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>531.7095233437991</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075288</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>2021.614212075288</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>233.3243533729269</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>669.5088164861135</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>403.5294713069377</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1856.233416454656</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1534.854190103781</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.209336466642</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>890.4220867293807</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>545.3239234055523</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G11" t="n">
-        <v>203.9574430397493</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5072,19 +5072,19 @@
         <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873814</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873814</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="W11" t="n">
-        <v>2827.282650873814</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="X11" t="n">
-        <v>2509.626320953064</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y11" t="n">
-        <v>2184.931887019859</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.48562529624</v>
+        <v>379.0098426317706</v>
       </c>
       <c r="C13" t="n">
-        <v>231.48562529624</v>
+        <v>280.6009998439537</v>
       </c>
       <c r="D13" t="n">
-        <v>147.6487873449487</v>
+        <v>196.7641618926623</v>
       </c>
       <c r="E13" t="n">
-        <v>147.6487873449487</v>
+        <v>196.7641618926623</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
         <v>999.6269248138159</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1064.214398904944</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>870.0313288719617</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W13" t="n">
-        <v>658.4972019493332</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="X13" t="n">
-        <v>496.2131548785102</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="Y13" t="n">
-        <v>344.8973688413474</v>
+        <v>379.0098426317706</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.037022769199</v>
+        <v>1374.479701206713</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.657796418324</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681063</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572343</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914315</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5297,31 +5297,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S14" t="n">
-        <v>3046.101118633033</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="T14" t="n">
-        <v>2894.396791338644</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2894.396791338644</v>
+        <v>2915.042229661677</v>
       </c>
       <c r="V14" t="n">
-        <v>2624.086257188357</v>
+        <v>2644.731695511389</v>
       </c>
       <c r="W14" t="n">
-        <v>2624.086257188357</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X14" t="n">
-        <v>2306.429927267607</v>
+        <v>2027.872605705121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.735493334402</v>
+        <v>1703.178171771916</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.4047163160371</v>
+        <v>398.2566373726693</v>
       </c>
       <c r="C16" t="n">
-        <v>305.4047163160371</v>
+        <v>299.8477945848523</v>
       </c>
       <c r="D16" t="n">
-        <v>305.4047163160371</v>
+        <v>299.8477945848523</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160371</v>
+        <v>216.0852575902486</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752041</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208436</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1452.535521860493</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.515713189236</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.592936503664</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="U16" t="n">
-        <v>943.9504198917587</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="V16" t="n">
-        <v>943.9504198917587</v>
+        <v>1036.802340948391</v>
       </c>
       <c r="W16" t="n">
-        <v>732.4162929691302</v>
+        <v>825.2682140257625</v>
       </c>
       <c r="X16" t="n">
-        <v>570.1322458983072</v>
+        <v>662.9841669549395</v>
       </c>
       <c r="Y16" t="n">
-        <v>418.8164598611445</v>
+        <v>511.6683809177766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5522,7 +5522,7 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
         <v>2132.883732040978</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5744,58 +5744,58 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,10 +6218,10 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6236,37 +6236,37 @@
         <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6427,7 +6427,7 @@
         <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6476,10 +6476,10 @@
         <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879675</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993088</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108116</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835536</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741589</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.91105178617</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3192.91121997631</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076164</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929734</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404876</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245274</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652549</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597528</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.7304500837423</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>575.8353109291652</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777496</v>
+        <v>870.6770655353571</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1145.033953152048</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503609</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387762</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250215</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273707</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400732</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045813</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027497</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,16 +6959,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343038</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072212</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7448,10 +7448,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7570,13 +7570,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
         <v>812.1990332879427</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,25 +7670,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>193.5145772035956</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O2" t="n">
-        <v>218.5182021115914</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,22 +8061,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>611.1777065035434</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>455.5410760561073</v>
       </c>
       <c r="O3" t="n">
-        <v>259.9423929374724</v>
+        <v>611.4781433431205</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376806</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>224.1336100998663</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>368.3497592022215</v>
+        <v>574.4602701392437</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>301.1357168357237</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>434.5927516899133</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,22 +9240,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056832</v>
       </c>
       <c r="N18" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.790719668436</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,13 +10662,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10677,10 +10677,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10899,13 +10899,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,10 +10914,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,10 +11151,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>175.2194086958929</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>91.07494101728696</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34.22123233115235</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>75.30619046857845</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372781</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.51339320661241</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>143.2991599078021</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993866</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177839</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246575</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>15.09334759054217</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338894</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.828518324541413</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1226258.811034825</v>
+        <v>1226258.811034826</v>
       </c>
     </row>
     <row r="9">
@@ -26314,7 +26314,7 @@
         <v>36066.43561867136</v>
       </c>
       <c r="C2" t="n">
-        <v>36066.43561867137</v>
+        <v>36066.43561867136</v>
       </c>
       <c r="D2" t="n">
         <v>36066.43561867136</v>
@@ -26323,13 +26323,13 @@
         <v>31871.80468488012</v>
       </c>
       <c r="F2" t="n">
-        <v>31871.80468488012</v>
+        <v>31871.80468488013</v>
       </c>
       <c r="G2" t="n">
         <v>36066.43561867136</v>
       </c>
       <c r="H2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="I2" t="n">
         <v>36066.43561867136</v>
@@ -26341,19 +26341,19 @@
         <v>36066.43561867128</v>
       </c>
       <c r="L2" t="n">
-        <v>36066.43561867133</v>
+        <v>36066.43561867138</v>
       </c>
       <c r="M2" t="n">
-        <v>36066.43561867133</v>
+        <v>36066.43561867136</v>
       </c>
       <c r="N2" t="n">
-        <v>36066.43561867133</v>
+        <v>36066.43561867136</v>
       </c>
       <c r="O2" t="n">
         <v>36066.43561867136</v>
       </c>
       <c r="P2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867134</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401319</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728547</v>
+        <v>62456.24177539657</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081109</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005333</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005333</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373754</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,25 +26482,25 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380028.9170375087</v>
+        <v>-376880.5664507346</v>
       </c>
       <c r="C6" t="n">
-        <v>-197823.9687456528</v>
+        <v>-203021.9094166792</v>
       </c>
       <c r="D6" t="n">
-        <v>-202687.251039528</v>
+        <v>-210423.5402629193</v>
       </c>
       <c r="E6" t="n">
-        <v>-207521.2720127424</v>
+        <v>-207731.0035594319</v>
       </c>
       <c r="F6" t="n">
-        <v>-95398.71053869798</v>
+        <v>-95608.4420853874</v>
       </c>
       <c r="G6" t="n">
         <v>-191372.0712488499</v>
       </c>
       <c r="H6" t="n">
-        <v>-143946.745712168</v>
+        <v>-143946.7457121679</v>
       </c>
       <c r="I6" t="n">
-        <v>-143946.745712168</v>
+        <v>-143946.7457121679</v>
       </c>
       <c r="J6" t="n">
-        <v>-356988.6633094536</v>
+        <v>-350472.3781548805</v>
       </c>
       <c r="K6" t="n">
         <v>-150186.514114951</v>
       </c>
       <c r="L6" t="n">
-        <v>-205369.103049572</v>
+        <v>-209417.9402600441</v>
       </c>
       <c r="M6" t="n">
-        <v>-186147.575171791</v>
+        <v>-187199.270182979</v>
       </c>
       <c r="N6" t="n">
         <v>-143946.745712168</v>
@@ -26561,7 +26561,7 @@
         <v>-171714.4397549392</v>
       </c>
       <c r="P6" t="n">
-        <v>-143946.7457121679</v>
+        <v>-143946.745712168</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,28 +26799,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293146</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660683</v>
+        <v>78.07030221924572</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551353</v>
+        <v>17.58004954287465</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.1545696897955</v>
+        <v>95.07349303150488</v>
       </c>
     </row>
     <row r="3">
@@ -27509,7 +27509,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626953</v>
+        <v>124.5704364758517</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>142.9093229607271</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>224.8288667820316</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,7 +27673,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.39550487820389</v>
+        <v>4.450860324657128</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626953</v>
+        <v>124.5704364758517</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>83.97215397532341</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,13 +27783,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>342.0992222388553</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.3812777453615</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>6.125739445105296</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28749,22 +28749,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29223,13 +29223,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634529063</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29308,13 +29308,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431648</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901272</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566546</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683160352</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>76.79385455031752</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254168</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30174,16 +30174,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634527927</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634528545</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,16 +30642,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30885,16 +30885,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.636002634528467</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.63600263452949</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>43.78952560586831</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O2" t="n">
-        <v>68.95436468749502</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>370.1689632019406</v>
       </c>
       <c r="O3" t="n">
-        <v>167.2548340485836</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135842</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.83216285894112</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>275.9626371529096</v>
+        <v>482.0731480899318</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5093868705986</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563713</v>
       </c>
       <c r="N18" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
-        <v>193.809314087321</v>
+        <v>193.8093140873216</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36604,13 +36604,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700718</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338764</v>
+        <v>611.0832447409207</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238012</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381912</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>264.9671660031095</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476685</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496205</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106679</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37397,10 +37397,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873199</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,10 +37634,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,10 +37871,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38181,16 +38181,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
